--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-org/hzero-org-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-org/hzero-org-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="446">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2169,6 +2169,9 @@
     <t>Company - New</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2217,7 +2220,7 @@
     <t>公司-启用</t>
   </si>
   <si>
-    <t>Company - Launch</t>
+    <t>Company - enable</t>
   </si>
   <si>
     <t>hzero.organization|hzero.organization.org-info|hzero.organization.org-info.hpfm.org-info.company.button.enable</t>
@@ -2232,7 +2235,7 @@
     <t>集团-编辑</t>
   </si>
   <si>
-    <t>Group editor</t>
+    <t>Group - Edit</t>
   </si>
   <si>
     <t>hzero.organization|hzero.organization.org-info|hzero.organization.org-info.hpfm.org-info.group.button.edit</t>
@@ -2382,7 +2385,7 @@
     <t>采购员指定用户-新建</t>
   </si>
   <si>
-    <t>Buyer assigned user - New</t>
+    <t>Buyer designated user - New</t>
   </si>
   <si>
     <t>hzero.organization|hzero.organization.org-info|hzero.organization.org-info.hpfm.org-info.purchase-agent.button.userCreate</t>
@@ -2397,7 +2400,7 @@
     <t>采购员指定用户-删除</t>
   </si>
   <si>
-    <t>Buyer assigned user - delete</t>
+    <t>Buyer designated user - delete</t>
   </si>
   <si>
     <t>hzero.organization|hzero.organization.org-info|hzero.organization.org-info.hpfm.org-info.purchase-agent.button.userDelete</t>
@@ -2472,7 +2475,7 @@
     <t>库房-编辑</t>
   </si>
   <si>
-    <t>Warehouse - editor</t>
+    <t>Warehouse - Edit</t>
   </si>
   <si>
     <t>hzero.organization|hzero.organization.org-info|hzero.organization.org-info.hpfm.org-info.store-room.button.edit</t>
@@ -2649,6 +2652,9 @@
     <t>HIAM.TENANT.USER</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
@@ -2664,9 +2670,6 @@
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hzero-file.file-service-site-level.getAttachUUID</t>
-  </si>
-  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
@@ -2679,312 +2682,198 @@
     <t>iam_menu_permission-29</t>
   </si>
   <si>
+    <t>hzero-platform.company.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-platform.company.list</t>
+    <t>hzero-platform.country-region.treeRegionWithParent</t>
   </si>
   <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hzero-platform.country-region.treeRegionWithParent</t>
+    <t>hzero-platform.country.listCountry</t>
   </si>
   <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hzero-platform.country.listCountry</t>
+    <t>hzero-platform.country.pageCountry</t>
   </si>
   <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hzero-platform.country.pageCountry</t>
+    <t>hzero-platform.group.batchInsertOrUpdate</t>
   </si>
   <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hzero-platform.group.batchInsertOrUpdate</t>
+    <t>hzero-platform.group.detail</t>
   </si>
   <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hzero-platform.group.detail</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
+    <t>hzero-platform.group.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hzero-platform.group.list</t>
+    <t>hzero-platform.group.listSelf</t>
   </si>
   <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hzero-platform.group.listSelf</t>
+    <t>hzero-platform.industry-category.treeIndustryCategory</t>
   </si>
   <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hzero-platform.industry-category.treeIndustryCategory</t>
+    <t>hzero-platform.industry.treeIndustry</t>
   </si>
   <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hzero-platform.industry.treeIndustry</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
+    <t>hzero-platform.inventory-organization.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>hzero-platform.inventory-organization.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
+    <t>hzero-platform.inventory.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
-    <t>hzero-platform.inventory.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
+    <t>hzero-platform.location.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hzero-platform.location.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
+    <t>hzero-platform.operation-unit.list</t>
+  </si>
+  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>hzero-platform.operation-unit.list</t>
-  </si>
-  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
+    <t>hzero-platform.purchase-agent.deleteAssginUser</t>
+  </si>
+  <si>
     <t>iam_menu_permission-53</t>
   </si>
   <si>
-    <t>hzero-platform.purchase-agent.deleteAssginUser</t>
+    <t>hzero-platform.purchase-agent.listAssignUser</t>
   </si>
   <si>
     <t>iam_menu_permission-54</t>
   </si>
   <si>
-    <t>hzero-platform.purchase-agent.listAssignUser</t>
+    <t>hzero-platform.purchase-agent.listPurchaseAgent</t>
   </si>
   <si>
     <t>iam_menu_permission-55</t>
   </si>
   <si>
-    <t>hzero-platform.purchase-agent.listPurchaseAgent</t>
-  </si>
-  <si>
     <t>iam_menu_permission-56</t>
   </si>
   <si>
+    <t>hzero-platform.purchase-organization.listPurchaseOrg</t>
+  </si>
+  <si>
     <t>iam_menu_permission-57</t>
   </si>
   <si>
-    <t>hzero-platform.purchase-organization.listPurchaseOrg</t>
+    <t>hzero-platform.workflow-plus-hr.listEmployeeSuperiorNumByLevel</t>
+  </si>
+  <si>
+    <t>415</t>
   </si>
   <si>
     <t>iam_menu_permission-58</t>
   </si>
   <si>
-    <t>hzero-platform.workflow-plus-hr.listEmployeeSuperiorNumByLevel</t>
+    <t>hzero-report.report.getReportData</t>
   </si>
   <si>
     <t>iam_menu_permission-59</t>
   </si>
   <si>
-    <t>hzero-report.report.getReportData</t>
-  </si>
-  <si>
     <t>iam_menu_permission-60</t>
   </si>
   <si>
-    <t>srm-platform.company-address.batchSaveCompanyAddress</t>
-  </si>
-  <si>
     <t>iam_menu_permission-61</t>
   </si>
   <si>
-    <t>srm-platform.company-address.queryCompanyAddress</t>
-  </si>
-  <si>
     <t>iam_menu_permission-62</t>
   </si>
   <si>
-    <t>srm-platform.company-attachment.batchDeleteCompanyAttachment</t>
-  </si>
-  <si>
     <t>iam_menu_permission-63</t>
   </si>
   <si>
-    <t>srm-platform.company-attachment.batchSaveCompanyAttachment</t>
-  </si>
-  <si>
     <t>iam_menu_permission-64</t>
   </si>
   <si>
-    <t>srm-platform.company-attachment.queryCompanyAttachment</t>
-  </si>
-  <si>
     <t>iam_menu_permission-65</t>
   </si>
   <si>
-    <t>srm-platform.company-bank-account.batchSaveCompanyBankAccount</t>
-  </si>
-  <si>
     <t>iam_menu_permission-66</t>
   </si>
   <si>
-    <t>srm-platform.company-basic-site-level.queryCompanyName</t>
-  </si>
-  <si>
     <t>iam_menu_permission-67</t>
   </si>
   <si>
-    <t>srm-platform.company-basic-site-level.queryUnifiedSocialCode</t>
-  </si>
-  <si>
     <t>iam_menu_permission-68</t>
   </si>
   <si>
-    <t>srm-platform.company-business.createCompanyBusiness</t>
-  </si>
-  <si>
     <t>iam_menu_permission-69</t>
   </si>
   <si>
-    <t>srm-platform.company-business.queryCompanyBusiness</t>
-  </si>
-  <si>
     <t>iam_menu_permission-70</t>
   </si>
   <si>
-    <t>srm-platform.company-business.updateCompanyBusiness</t>
-  </si>
-  <si>
     <t>iam_menu_permission-71</t>
   </si>
   <si>
-    <t>srm-platform.company-contact.createCompanyContact</t>
-  </si>
-  <si>
     <t>iam_menu_permission-72</t>
   </si>
   <si>
-    <t>srm-platform.company-contact.queryCompanyContact</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-73</t>
-  </si>
-  <si>
-    <t>srm-platform.company-contact.updateCompanyContact</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-74</t>
-  </si>
-  <si>
-    <t>srm-platform.company-contact.validCompanyContact</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-75</t>
-  </si>
-  <si>
-    <t>srm-platform.company-finance.batchDeleteCompanyFinance</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-76</t>
-  </si>
-  <si>
-    <t>srm-platform.company-finance.batchSaveCompanyFinance</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-77</t>
-  </si>
-  <si>
-    <t>srm-platform.company-finance.queryCompanyFinance</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-78</t>
-  </si>
-  <si>
-    <t>srm-platform.company-org-level.listCompanySimple</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-79</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-80</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-81</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-82</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-83</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-84</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-85</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-86</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-87</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-88</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-89</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-90</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-91</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-92</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -3051,12 +2940,12 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>site</t>
   </si>
   <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -3120,6 +3009,9 @@
     <t>PS</t>
   </si>
   <si>
+    <t>159332009760137337</t>
+  </si>
+  <si>
     <t>iam_role_permission-14</t>
   </si>
   <si>
@@ -3192,81 +3084,6 @@
     <t>iam_role_permission-37</t>
   </si>
   <si>
-    <t>iam_role_permission-38</t>
-  </si>
-  <si>
-    <t>iam_role_permission-39</t>
-  </si>
-  <si>
-    <t>iam_role_permission-40</t>
-  </si>
-  <si>
-    <t>iam_role_permission-41</t>
-  </si>
-  <si>
-    <t>iam_role_permission-42</t>
-  </si>
-  <si>
-    <t>iam_role_permission-43</t>
-  </si>
-  <si>
-    <t>iam_role_permission-44</t>
-  </si>
-  <si>
-    <t>iam_role_permission-45</t>
-  </si>
-  <si>
-    <t>iam_role_permission-46</t>
-  </si>
-  <si>
-    <t>iam_role_permission-47</t>
-  </si>
-  <si>
-    <t>iam_role_permission-48</t>
-  </si>
-  <si>
-    <t>iam_role_permission-49</t>
-  </si>
-  <si>
-    <t>iam_role_permission-50</t>
-  </si>
-  <si>
-    <t>iam_role_permission-51</t>
-  </si>
-  <si>
-    <t>iam_role_permission-52</t>
-  </si>
-  <si>
-    <t>iam_role_permission-53</t>
-  </si>
-  <si>
-    <t>iam_role_permission-54</t>
-  </si>
-  <si>
-    <t>iam_role_permission-55</t>
-  </si>
-  <si>
-    <t>iam_role_permission-56</t>
-  </si>
-  <si>
-    <t>iam_role_permission-57</t>
-  </si>
-  <si>
-    <t>iam_role_permission-58</t>
-  </si>
-  <si>
-    <t>iam_role_permission-59</t>
-  </si>
-  <si>
-    <t>iam_role_permission-60</t>
-  </si>
-  <si>
-    <t>iam_role_permission-61</t>
-  </si>
-  <si>
-    <t>iam_role_permission-62</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3319,6 +3136,27 @@
   </si>
   <si>
     <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TEST_MENU1</t>
+  </si>
+  <si>
+    <t>30625</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>TEST_MENU2</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>TEST_MENU3</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -4820,8 +4658,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>业务组织架构菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -4876,14 +4715,18 @@
       <c r="H10" t="s">
         <v>106</v>
       </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
         <v>85</v>
@@ -4901,13 +4744,13 @@
         <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T10" t="s">
         <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
         <v>88</v>
@@ -4916,30 +4759,34 @@
         <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>85</v>
@@ -4957,13 +4804,13 @@
         <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T11" t="s">
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -4972,30 +4819,34 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5013,13 +4864,13 @@
         <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T12" t="s">
         <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s">
         <v>88</v>
@@ -5028,30 +4879,34 @@
         <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
         <v>85</v>
@@ -5069,13 +4924,13 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X13" t="s">
         <v>88</v>
@@ -5084,30 +4939,34 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
         <v>85</v>
@@ -5125,13 +4984,13 @@
         <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
         <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X14" t="s">
         <v>88</v>
@@ -5140,30 +4999,34 @@
         <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
         <v>85</v>
@@ -5181,13 +5044,13 @@
         <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T15" t="s">
         <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X15" t="s">
         <v>88</v>
@@ -5196,30 +5059,34 @@
         <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
@@ -5237,13 +5104,13 @@
         <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T16" t="s">
         <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X16" t="s">
         <v>88</v>
@@ -5252,30 +5119,34 @@
         <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
         <v>85</v>
@@ -5293,13 +5164,13 @@
         <v>85</v>
       </c>
       <c r="S17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T17" t="s">
         <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X17" t="s">
         <v>88</v>
@@ -5308,30 +5179,34 @@
         <v>91</v>
       </c>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
       </c>
       <c r="J18" t="s">
         <v>84</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
         <v>85</v>
@@ -5349,13 +5224,13 @@
         <v>85</v>
       </c>
       <c r="S18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T18" t="s">
         <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X18" t="s">
         <v>88</v>
@@ -5364,30 +5239,34 @@
         <v>91</v>
       </c>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
       </c>
       <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
         <v>85</v>
@@ -5405,13 +5284,13 @@
         <v>85</v>
       </c>
       <c r="S19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T19" t="s">
         <v>85</v>
       </c>
       <c r="V19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X19" t="s">
         <v>88</v>
@@ -5420,30 +5299,34 @@
         <v>91</v>
       </c>
       <c r="AC19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
       </c>
       <c r="J20" t="s">
         <v>84</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
         <v>85</v>
@@ -5461,13 +5344,13 @@
         <v>85</v>
       </c>
       <c r="S20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T20" t="s">
         <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X20" t="s">
         <v>88</v>
@@ -5476,30 +5359,34 @@
         <v>91</v>
       </c>
       <c r="AC20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
       </c>
       <c r="J21" t="s">
         <v>84</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
         <v>85</v>
@@ -5517,13 +5404,13 @@
         <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T21" t="s">
         <v>85</v>
       </c>
       <c r="V21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X21" t="s">
         <v>88</v>
@@ -5532,30 +5419,34 @@
         <v>91</v>
       </c>
       <c r="AC21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
       </c>
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s">
         <v>85</v>
@@ -5573,13 +5464,13 @@
         <v>85</v>
       </c>
       <c r="S22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T22" t="s">
         <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s">
         <v>88</v>
@@ -5588,30 +5479,34 @@
         <v>91</v>
       </c>
       <c r="AC22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
       </c>
       <c r="J23" t="s">
         <v>84</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
         <v>85</v>
@@ -5629,13 +5524,13 @@
         <v>85</v>
       </c>
       <c r="S23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T23" t="s">
         <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s">
         <v>88</v>
@@ -5644,30 +5539,34 @@
         <v>91</v>
       </c>
       <c r="AC23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
       </c>
       <c r="J24" t="s">
         <v>84</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
         <v>85</v>
@@ -5685,13 +5584,13 @@
         <v>85</v>
       </c>
       <c r="S24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T24" t="s">
         <v>85</v>
       </c>
       <c r="V24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X24" t="s">
         <v>88</v>
@@ -5700,30 +5599,34 @@
         <v>91</v>
       </c>
       <c r="AC24" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
       </c>
       <c r="J25" t="s">
         <v>84</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
         <v>85</v>
@@ -5741,13 +5644,13 @@
         <v>85</v>
       </c>
       <c r="S25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T25" t="s">
         <v>85</v>
       </c>
       <c r="V25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X25" t="s">
         <v>88</v>
@@ -5756,30 +5659,34 @@
         <v>91</v>
       </c>
       <c r="AC25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="I26" t="s">
+        <v>107</v>
       </c>
       <c r="J26" t="s">
         <v>84</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s">
         <v>85</v>
@@ -5797,13 +5704,13 @@
         <v>85</v>
       </c>
       <c r="S26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T26" t="s">
         <v>85</v>
       </c>
       <c r="V26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X26" t="s">
         <v>88</v>
@@ -5812,30 +5719,34 @@
         <v>91</v>
       </c>
       <c r="AC26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>84</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
         <v>85</v>
@@ -5853,13 +5764,13 @@
         <v>85</v>
       </c>
       <c r="S27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T27" t="s">
         <v>85</v>
       </c>
       <c r="V27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X27" t="s">
         <v>88</v>
@@ -5868,30 +5779,34 @@
         <v>91</v>
       </c>
       <c r="AC27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
       </c>
       <c r="J28" t="s">
         <v>84</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
         <v>85</v>
@@ -5909,13 +5824,13 @@
         <v>85</v>
       </c>
       <c r="S28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T28" t="s">
         <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X28" t="s">
         <v>88</v>
@@ -5924,30 +5839,34 @@
         <v>91</v>
       </c>
       <c r="AC28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>84</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
         <v>85</v>
@@ -5965,13 +5884,13 @@
         <v>85</v>
       </c>
       <c r="S29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T29" t="s">
         <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X29" t="s">
         <v>88</v>
@@ -5980,30 +5899,34 @@
         <v>91</v>
       </c>
       <c r="AC29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
       </c>
       <c r="J30" t="s">
         <v>84</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
         <v>85</v>
@@ -6021,13 +5944,13 @@
         <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T30" t="s">
         <v>85</v>
       </c>
       <c r="V30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X30" t="s">
         <v>88</v>
@@ -6036,30 +5959,31 @@
         <v>91</v>
       </c>
       <c r="AC30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J31" t="s">
         <v>84</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
         <v>99</v>
@@ -6074,7 +5998,7 @@
         <v>85</v>
       </c>
       <c r="S31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T31" t="s">
         <v>85</v>
@@ -6094,28 +6018,29 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
         <v>84</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
         <v>85</v>
@@ -6124,7 +6049,7 @@
         <v>88</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32" t="s">
         <v>85</v>
@@ -6133,7 +6058,7 @@
         <v>85</v>
       </c>
       <c r="S32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T32" t="s">
         <v>85</v>
@@ -6153,25 +6078,26 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
         <v>84</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
         <v>99</v>
@@ -6186,7 +6112,7 @@
         <v>85</v>
       </c>
       <c r="S33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T33" t="s">
         <v>85</v>
@@ -6206,25 +6132,26 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
         <v>84</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
         <v>99</v>
@@ -6239,7 +6166,7 @@
         <v>85</v>
       </c>
       <c r="S34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T34" t="s">
         <v>85</v>
@@ -6264,7 +6191,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6303,22 +6230,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -6329,13 +6256,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8">
+        <v>238</v>
+      </c>
+      <c r="F8" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -6349,13 +6277,14 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9">
+        <v>240</v>
+      </c>
+      <c r="F9" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -6369,13 +6298,14 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10">
+        <v>242</v>
+      </c>
+      <c r="F10" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -6389,13 +6319,14 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11">
+        <v>244</v>
+      </c>
+      <c r="F11" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -6409,13 +6340,14 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12">
+        <v>246</v>
+      </c>
+      <c r="F12" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -6429,13 +6361,14 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13">
+        <v>248</v>
+      </c>
+      <c r="F13" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -6449,13 +6382,14 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="F14" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -6469,13 +6403,14 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15">
+        <v>252</v>
+      </c>
+      <c r="F15" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -6489,13 +6424,14 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16">
+        <v>254</v>
+      </c>
+      <c r="F16" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -6509,13 +6445,14 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -6529,13 +6466,14 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18">
+        <v>258</v>
+      </c>
+      <c r="F18" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -6549,13 +6487,14 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19">
+        <v>260</v>
+      </c>
+      <c r="F19" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -6569,13 +6508,14 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>261</v>
-      </c>
-      <c r="F20">
+        <v>262</v>
+      </c>
+      <c r="F20" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -6589,13 +6529,14 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F21">
+        <v>264</v>
+      </c>
+      <c r="F21" t="n">
         <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H21" t="s">
         <v>85</v>
@@ -6609,13 +6550,14 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22">
+        <v>266</v>
+      </c>
+      <c r="F22" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
@@ -6624,18 +6566,19 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F23">
+        <v>269</v>
+      </c>
+      <c r="F23" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
         <v>85</v>
@@ -6649,13 +6592,14 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24">
+        <v>271</v>
+      </c>
+      <c r="F24" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
         <v>85</v>
@@ -6669,13 +6613,14 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F25">
+        <v>273</v>
+      </c>
+      <c r="F25" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
         <v>85</v>
@@ -6689,13 +6634,14 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26">
+        <v>274</v>
+      </c>
+      <c r="F26" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
@@ -6709,13 +6655,14 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27">
+        <v>275</v>
+      </c>
+      <c r="F27" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
@@ -6729,13 +6676,14 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>275</v>
-      </c>
-      <c r="F28">
+        <v>276</v>
+      </c>
+      <c r="F28" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H28" t="s">
         <v>85</v>
@@ -6749,13 +6697,14 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29">
+        <v>277</v>
+      </c>
+      <c r="F29" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="H29" t="s">
         <v>85</v>
@@ -6769,13 +6718,14 @@
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>277</v>
-      </c>
-      <c r="F30">
+        <v>279</v>
+      </c>
+      <c r="F30" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
@@ -6789,13 +6739,14 @@
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>279</v>
-      </c>
-      <c r="F31">
+        <v>281</v>
+      </c>
+      <c r="F31" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H31" t="s">
         <v>85</v>
@@ -6809,13 +6760,14 @@
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32">
+        <v>283</v>
+      </c>
+      <c r="F32" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
@@ -6829,13 +6781,14 @@
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33">
+        <v>285</v>
+      </c>
+      <c r="F33" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H33" t="s">
         <v>85</v>
@@ -6849,13 +6802,14 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F34">
+        <v>287</v>
+      </c>
+      <c r="F34" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H34" t="s">
         <v>85</v>
@@ -6869,13 +6823,14 @@
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F35">
+        <v>289</v>
+      </c>
+      <c r="F35" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
         <v>85</v>
@@ -6889,13 +6844,14 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36">
+        <v>290</v>
+      </c>
+      <c r="F36" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="H36" t="s">
         <v>85</v>
@@ -6909,13 +6865,14 @@
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>290</v>
-      </c>
-      <c r="F37">
+        <v>292</v>
+      </c>
+      <c r="F37" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H37" t="s">
         <v>85</v>
@@ -6929,13 +6886,14 @@
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38">
+        <v>294</v>
+      </c>
+      <c r="F38" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G38" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H38" t="s">
         <v>85</v>
@@ -6949,13 +6907,14 @@
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>294</v>
-      </c>
-      <c r="F39">
+        <v>296</v>
+      </c>
+      <c r="F39" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H39" t="s">
         <v>85</v>
@@ -6969,13 +6928,14 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40">
+        <v>298</v>
+      </c>
+      <c r="F40" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
         <v>85</v>
@@ -6989,13 +6949,14 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41">
+        <v>299</v>
+      </c>
+      <c r="F41" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
@@ -7009,13 +6970,14 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="F42" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
@@ -7029,13 +6991,14 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43">
+        <v>302</v>
+      </c>
+      <c r="F43" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G43" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
@@ -7049,13 +7012,14 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44">
+        <v>303</v>
+      </c>
+      <c r="F44" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H44" t="s">
         <v>85</v>
@@ -7069,13 +7033,14 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45">
+        <v>304</v>
+      </c>
+      <c r="F45" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="H45" t="s">
         <v>85</v>
@@ -7089,13 +7054,14 @@
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>304</v>
-      </c>
-      <c r="F46">
+        <v>306</v>
+      </c>
+      <c r="F46" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G46" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="H46" t="s">
         <v>85</v>
@@ -7109,13 +7075,14 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>306</v>
-      </c>
-      <c r="F47">
+        <v>307</v>
+      </c>
+      <c r="F47" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
         <v>85</v>
@@ -7129,13 +7096,14 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48">
+        <v>309</v>
+      </c>
+      <c r="F48" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
         <v>85</v>
@@ -7149,13 +7117,14 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49">
+        <v>310</v>
+      </c>
+      <c r="F49" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="H49" t="s">
         <v>85</v>
@@ -7169,13 +7138,14 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50">
+        <v>312</v>
+      </c>
+      <c r="F50" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G50" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="H50" t="s">
         <v>85</v>
@@ -7189,13 +7159,14 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51">
+        <v>313</v>
+      </c>
+      <c r="F51" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
         <v>85</v>
@@ -7209,13 +7180,14 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52">
+        <v>314</v>
+      </c>
+      <c r="F52" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="H52" t="s">
         <v>85</v>
@@ -7229,13 +7201,14 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53">
+        <v>316</v>
+      </c>
+      <c r="F53" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G53" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
         <v>85</v>
@@ -7249,13 +7222,14 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>316</v>
-      </c>
-      <c r="F54">
+        <v>318</v>
+      </c>
+      <c r="F54" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H54" t="s">
         <v>85</v>
@@ -7269,13 +7243,14 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>318</v>
-      </c>
-      <c r="F55">
+        <v>320</v>
+      </c>
+      <c r="F55" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G55" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="H55" t="s">
         <v>85</v>
@@ -7289,13 +7264,14 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>320</v>
-      </c>
-      <c r="F56">
+        <v>321</v>
+      </c>
+      <c r="F56" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="H56" t="s">
         <v>85</v>
@@ -7309,13 +7285,14 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57">
+        <v>323</v>
+      </c>
+      <c r="F57" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H57" t="s">
         <v>85</v>
@@ -7324,18 +7301,19 @@
         <v>91</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>323</v>
-      </c>
-      <c r="F58">
+        <v>326</v>
+      </c>
+      <c r="F58" t="n">
         <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="G58" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H58" t="s">
         <v>85</v>
@@ -7344,18 +7322,19 @@
         <v>91</v>
       </c>
       <c r="J58" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>325</v>
-      </c>
-      <c r="F59">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>328</v>
+      </c>
+      <c r="F59" t="n">
+        <f>业务组织架构菜单!$E$33</f>
+        <v>0.0</v>
       </c>
       <c r="G59" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H59" t="s">
         <v>85</v>
@@ -7369,13 +7348,14 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>327</v>
-      </c>
-      <c r="F60">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>329</v>
+      </c>
+      <c r="F60" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G60" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="H60" t="s">
         <v>85</v>
@@ -7389,13 +7369,14 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>329</v>
-      </c>
-      <c r="F61">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>330</v>
+      </c>
+      <c r="F61" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G61" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
         <v>85</v>
@@ -7411,11 +7392,12 @@
       <c r="E62" t="s">
         <v>331</v>
       </c>
-      <c r="F62">
-        <f>业务组织架构菜单!$E$32</f>
+      <c r="F62" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G62" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
         <v>85</v>
@@ -7429,13 +7411,14 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>333</v>
-      </c>
-      <c r="F63">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>332</v>
+      </c>
+      <c r="F63" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
         <v>85</v>
@@ -7449,13 +7432,14 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>335</v>
-      </c>
-      <c r="F64">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>333</v>
+      </c>
+      <c r="F64" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="H64" t="s">
         <v>85</v>
@@ -7469,13 +7453,14 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>337</v>
-      </c>
-      <c r="F65">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>334</v>
+      </c>
+      <c r="F65" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="H65" t="s">
         <v>85</v>
@@ -7489,13 +7474,14 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>339</v>
-      </c>
-      <c r="F66">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>335</v>
+      </c>
+      <c r="F66" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G66" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="H66" t="s">
         <v>85</v>
@@ -7509,13 +7495,14 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>341</v>
-      </c>
-      <c r="F67">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>336</v>
+      </c>
+      <c r="F67" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G67" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="H67" t="s">
         <v>85</v>
@@ -7529,13 +7516,14 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>343</v>
-      </c>
-      <c r="F68">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>337</v>
+      </c>
+      <c r="F68" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="H68" t="s">
         <v>85</v>
@@ -7549,13 +7537,14 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>345</v>
-      </c>
-      <c r="F69">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>338</v>
+      </c>
+      <c r="F69" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G69" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="H69" t="s">
         <v>85</v>
@@ -7569,13 +7558,14 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>347</v>
-      </c>
-      <c r="F70">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>339</v>
+      </c>
+      <c r="F70" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G70" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
@@ -7589,13 +7579,14 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>340</v>
+      </c>
+      <c r="F71" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G71" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="H71" t="s">
         <v>85</v>
@@ -7609,13 +7600,14 @@
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>351</v>
-      </c>
-      <c r="F72">
-        <f>业务组织架构菜单!$E$32</f>
+        <v>341</v>
+      </c>
+      <c r="F72" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="G72" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="H72" t="s">
         <v>85</v>
@@ -7624,406 +7616,6 @@
         <v>91</v>
       </c>
       <c r="J72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>353</v>
-      </c>
-      <c r="F73">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G73" t="s">
-        <v>354</v>
-      </c>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>355</v>
-      </c>
-      <c r="F74">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>357</v>
-      </c>
-      <c r="F75">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G75" t="s">
-        <v>358</v>
-      </c>
-      <c r="H75" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" t="s">
-        <v>91</v>
-      </c>
-      <c r="J75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>359</v>
-      </c>
-      <c r="F76">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G76" t="s">
-        <v>360</v>
-      </c>
-      <c r="H76" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>361</v>
-      </c>
-      <c r="F77">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G77" t="s">
-        <v>362</v>
-      </c>
-      <c r="H77" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77" t="s">
-        <v>91</v>
-      </c>
-      <c r="J77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>363</v>
-      </c>
-      <c r="F78">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="G78" t="s">
-        <v>364</v>
-      </c>
-      <c r="H78" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>365</v>
-      </c>
-      <c r="F79">
-        <f>业务组织架构菜单!$E$33</f>
-      </c>
-      <c r="G79" t="s">
-        <v>315</v>
-      </c>
-      <c r="H79" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>366</v>
-      </c>
-      <c r="F80">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G80" t="s">
-        <v>278</v>
-      </c>
-      <c r="H80" t="s">
-        <v>85</v>
-      </c>
-      <c r="I80" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>367</v>
-      </c>
-      <c r="F81">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G81" t="s">
-        <v>280</v>
-      </c>
-      <c r="H81" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>368</v>
-      </c>
-      <c r="F82">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G82" t="s">
-        <v>284</v>
-      </c>
-      <c r="H82" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>369</v>
-      </c>
-      <c r="F83">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G83" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84" t="s">
-        <v>91</v>
-      </c>
-      <c r="J84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>371</v>
-      </c>
-      <c r="F85">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G85" t="s">
-        <v>297</v>
-      </c>
-      <c r="H85" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>372</v>
-      </c>
-      <c r="F86">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G86" t="s">
-        <v>301</v>
-      </c>
-      <c r="H86" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>373</v>
-      </c>
-      <c r="F87">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G87" t="s">
-        <v>305</v>
-      </c>
-      <c r="H87" t="s">
-        <v>85</v>
-      </c>
-      <c r="I87" t="s">
-        <v>91</v>
-      </c>
-      <c r="J87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G88" t="s">
-        <v>308</v>
-      </c>
-      <c r="H88" t="s">
-        <v>85</v>
-      </c>
-      <c r="I88" t="s">
-        <v>91</v>
-      </c>
-      <c r="J88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>375</v>
-      </c>
-      <c r="F89">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G89" t="s">
-        <v>311</v>
-      </c>
-      <c r="H89" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89" t="s">
-        <v>91</v>
-      </c>
-      <c r="J89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>376</v>
-      </c>
-      <c r="F90">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G90" t="s">
-        <v>317</v>
-      </c>
-      <c r="H90" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" t="s">
-        <v>91</v>
-      </c>
-      <c r="J90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>377</v>
-      </c>
-      <c r="F91">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G91" t="s">
-        <v>319</v>
-      </c>
-      <c r="H91" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" t="s">
-        <v>91</v>
-      </c>
-      <c r="J91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>378</v>
-      </c>
-      <c r="F92">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="G92" t="s">
-        <v>322</v>
-      </c>
-      <c r="H92" t="s">
-        <v>85</v>
-      </c>
-      <c r="I92" t="s">
-        <v>91</v>
-      </c>
-      <c r="J92" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8034,7 +7626,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8073,10 +7665,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -8091,58 +7683,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="J7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="O7" t="s" s="76">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="P7" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="R7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="S7" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="T7" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="W7" t="s" s="77">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="X7" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="Y7" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="Z7" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -8153,22 +7745,19 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="G8" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="H8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I8" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="K8" t="s">
         <v>85</v>
@@ -8201,10 +7790,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="V8" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -8216,24 +7805,21 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
-        <v>406</v>
-      </c>
-      <c r="I9" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
         <v>84</v>
@@ -8269,10 +7855,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="V9" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -8284,21 +7870,21 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="F10" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="H10" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="J10" t="s">
         <v>84</v>
@@ -8309,8 +7895,9 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
         <v>84</v>
@@ -8334,19 +7921,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="V10" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="Y10" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -8355,7 +7942,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -8366,31 +7953,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s" s="81">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="H12" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s" s="82">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="K12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
@@ -8401,22 +7988,24 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>420</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G13">
+        <v>383</v>
+      </c>
+      <c r="F13" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <f>业务组织架构菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I13" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J13" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -8425,27 +8014,29 @@
         <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14">
+        <v>388</v>
+      </c>
+      <c r="F14" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G14">
-        <f>业务组织架构菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <f>业务组织架构菜单!$E$11</f>
+        <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J14" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -8454,27 +8045,29 @@
         <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G15">
-        <f>业务组织架构菜单!$E$11</f>
+        <v>389</v>
+      </c>
+      <c r="F15" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <f>业务组织架构菜单!$E$12</f>
+        <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I15" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J15" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
         <v>85</v>
@@ -8483,27 +8076,29 @@
         <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>426</v>
-      </c>
-      <c r="F16">
+        <v>390</v>
+      </c>
+      <c r="F16" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G16">
-        <f>业务组织架构菜单!$E$11</f>
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <f>业务组织架构菜单!$E$13</f>
+        <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I16" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
@@ -8512,27 +8107,29 @@
         <v>91</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>427</v>
-      </c>
-      <c r="F17">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G17">
-        <f>业务组织架构菜单!$E$12</f>
+        <v>391</v>
+      </c>
+      <c r="F17" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <f>业务组织架构菜单!$E$14</f>
+        <v>0.0</v>
       </c>
       <c r="H17" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I17" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J17" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
@@ -8541,27 +8138,29 @@
         <v>91</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>428</v>
-      </c>
-      <c r="F18">
+        <v>392</v>
+      </c>
+      <c r="F18" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G18">
-        <f>业务组织架构菜单!$E$12</f>
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <f>业务组织架构菜单!$E$15</f>
+        <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I18" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J18" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K18" t="s">
         <v>85</v>
@@ -8570,27 +8169,29 @@
         <v>91</v>
       </c>
       <c r="M18" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>429</v>
-      </c>
-      <c r="F19">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G19">
-        <f>业务组织架构菜单!$E$13</f>
+        <v>393</v>
+      </c>
+      <c r="F19" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <f>业务组织架构菜单!$E$16</f>
+        <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I19" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J19" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
@@ -8599,27 +8200,29 @@
         <v>91</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>430</v>
-      </c>
-      <c r="F20">
+        <v>394</v>
+      </c>
+      <c r="F20" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G20">
-        <f>业务组织架构菜单!$E$13</f>
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <f>业务组织架构菜单!$E$17</f>
+        <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I20" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J20" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -8628,27 +8231,29 @@
         <v>91</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>431</v>
-      </c>
-      <c r="F21">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G21">
-        <f>业务组织架构菜单!$E$14</f>
+        <v>395</v>
+      </c>
+      <c r="F21" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <f>业务组织架构菜单!$E$18</f>
+        <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I21" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J21" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
@@ -8657,27 +8262,29 @@
         <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F22">
+        <v>396</v>
+      </c>
+      <c r="F22" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G22">
-        <f>业务组织架构菜单!$E$14</f>
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <f>业务组织架构菜单!$E$19</f>
+        <v>0.0</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I22" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J22" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -8686,27 +8293,29 @@
         <v>91</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>433</v>
-      </c>
-      <c r="F23">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G23">
-        <f>业务组织架构菜单!$E$15</f>
+        <v>397</v>
+      </c>
+      <c r="F23" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <f>业务组织架构菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I23" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J23" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K23" t="s">
         <v>85</v>
@@ -8715,27 +8324,29 @@
         <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>434</v>
-      </c>
-      <c r="F24">
+        <v>398</v>
+      </c>
+      <c r="F24" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G24">
-        <f>业务组织架构菜单!$E$15</f>
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <f>业务组织架构菜单!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I24" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J24" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -8744,27 +8355,29 @@
         <v>91</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>435</v>
-      </c>
-      <c r="F25">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G25">
-        <f>业务组织架构菜单!$E$16</f>
+        <v>399</v>
+      </c>
+      <c r="F25" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <f>业务组织架构菜单!$E$22</f>
+        <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I25" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J25" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K25" t="s">
         <v>85</v>
@@ -8773,27 +8386,29 @@
         <v>91</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F26">
+        <v>400</v>
+      </c>
+      <c r="F26" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G26">
-        <f>业务组织架构菜单!$E$16</f>
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <f>业务组织架构菜单!$E$23</f>
+        <v>0.0</v>
       </c>
       <c r="H26" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I26" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J26" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -8802,27 +8417,29 @@
         <v>91</v>
       </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>437</v>
-      </c>
-      <c r="F27">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G27">
-        <f>业务组织架构菜单!$E$17</f>
+        <v>401</v>
+      </c>
+      <c r="F27" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <f>业务组织架构菜单!$E$24</f>
+        <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I27" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J27" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K27" t="s">
         <v>85</v>
@@ -8831,27 +8448,29 @@
         <v>91</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>438</v>
-      </c>
-      <c r="F28">
+        <v>402</v>
+      </c>
+      <c r="F28" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G28">
-        <f>业务组织架构菜单!$E$17</f>
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <f>业务组织架构菜单!$E$25</f>
+        <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I28" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J28" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K28" t="s">
         <v>85</v>
@@ -8860,27 +8479,29 @@
         <v>91</v>
       </c>
       <c r="M28" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G29">
-        <f>业务组织架构菜单!$E$18</f>
+        <v>403</v>
+      </c>
+      <c r="F29" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <f>业务组织架构菜单!$E$26</f>
+        <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J29" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -8889,27 +8510,29 @@
         <v>91</v>
       </c>
       <c r="M29" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>440</v>
-      </c>
-      <c r="F30">
+        <v>404</v>
+      </c>
+      <c r="F30" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G30">
-        <f>业务组织架构菜单!$E$18</f>
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <f>业务组织架构菜单!$E$27</f>
+        <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I30" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J30" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -8918,27 +8541,29 @@
         <v>91</v>
       </c>
       <c r="M30" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>441</v>
-      </c>
-      <c r="F31">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G31">
-        <f>业务组织架构菜单!$E$19</f>
+        <v>405</v>
+      </c>
+      <c r="F31" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <f>业务组织架构菜单!$E$28</f>
+        <v>0.0</v>
       </c>
       <c r="H31" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I31" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J31" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K31" t="s">
         <v>85</v>
@@ -8947,27 +8572,29 @@
         <v>91</v>
       </c>
       <c r="M31" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>442</v>
-      </c>
-      <c r="F32">
+        <v>406</v>
+      </c>
+      <c r="F32" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G32">
-        <f>业务组织架构菜单!$E$19</f>
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <f>业务组织架构菜单!$E$29</f>
+        <v>0.0</v>
       </c>
       <c r="H32" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I32" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J32" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -8976,27 +8603,29 @@
         <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G33">
-        <f>业务组织架构菜单!$E$20</f>
+        <v>407</v>
+      </c>
+      <c r="F33" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <f>业务组织架构菜单!$E$30</f>
+        <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I33" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J33" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -9005,27 +8634,29 @@
         <v>91</v>
       </c>
       <c r="M33" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>444</v>
-      </c>
-      <c r="F34">
+        <v>408</v>
+      </c>
+      <c r="F34" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G34">
-        <f>业务组织架构菜单!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I34" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J34" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -9034,27 +8665,29 @@
         <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>445</v>
-      </c>
-      <c r="F35">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G35">
-        <f>业务组织架构菜单!$E$21</f>
+        <v>409</v>
+      </c>
+      <c r="F35" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
       </c>
       <c r="H35" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I35" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J35" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -9063,27 +8696,29 @@
         <v>91</v>
       </c>
       <c r="M35" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>446</v>
-      </c>
-      <c r="F36">
+        <v>410</v>
+      </c>
+      <c r="F36" t="n">
         <f>角色权限!$E$10</f>
-      </c>
-      <c r="G36">
-        <f>业务组织架构菜单!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <f>业务组织架构菜单!$E$33</f>
+        <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I36" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J36" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K36" t="s">
         <v>85</v>
@@ -9092,27 +8727,29 @@
         <v>91</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>447</v>
-      </c>
-      <c r="F37">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G37">
-        <f>业务组织架构菜单!$E$22</f>
+        <v>411</v>
+      </c>
+      <c r="F37" t="n">
+        <f>角色权限!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="I37" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
         <v>85</v>
@@ -9121,732 +8758,7 @@
         <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>448</v>
-      </c>
-      <c r="F38">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G38">
-        <f>业务组织架构菜单!$E$22</f>
-      </c>
-      <c r="H38" t="s">
-        <v>421</v>
-      </c>
-      <c r="I38" t="s">
-        <v>422</v>
-      </c>
-      <c r="J38" t="s">
-        <v>423</v>
-      </c>
-      <c r="K38" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>449</v>
-      </c>
-      <c r="F39">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G39">
-        <f>业务组织架构菜单!$E$23</f>
-      </c>
-      <c r="H39" t="s">
-        <v>421</v>
-      </c>
-      <c r="I39" t="s">
-        <v>422</v>
-      </c>
-      <c r="J39" t="s">
-        <v>423</v>
-      </c>
-      <c r="K39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>450</v>
-      </c>
-      <c r="F40">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G40">
-        <f>业务组织架构菜单!$E$23</f>
-      </c>
-      <c r="H40" t="s">
-        <v>421</v>
-      </c>
-      <c r="I40" t="s">
-        <v>422</v>
-      </c>
-      <c r="J40" t="s">
-        <v>423</v>
-      </c>
-      <c r="K40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L40" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>451</v>
-      </c>
-      <c r="F41">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G41">
-        <f>业务组织架构菜单!$E$24</f>
-      </c>
-      <c r="H41" t="s">
-        <v>421</v>
-      </c>
-      <c r="I41" t="s">
-        <v>422</v>
-      </c>
-      <c r="J41" t="s">
-        <v>423</v>
-      </c>
-      <c r="K41" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" t="s">
-        <v>91</v>
-      </c>
-      <c r="M41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>452</v>
-      </c>
-      <c r="F42">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G42">
-        <f>业务组织架构菜单!$E$24</f>
-      </c>
-      <c r="H42" t="s">
-        <v>421</v>
-      </c>
-      <c r="I42" t="s">
-        <v>422</v>
-      </c>
-      <c r="J42" t="s">
-        <v>423</v>
-      </c>
-      <c r="K42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>453</v>
-      </c>
-      <c r="F43">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G43">
-        <f>业务组织架构菜单!$E$25</f>
-      </c>
-      <c r="H43" t="s">
-        <v>421</v>
-      </c>
-      <c r="I43" t="s">
-        <v>422</v>
-      </c>
-      <c r="J43" t="s">
-        <v>423</v>
-      </c>
-      <c r="K43" t="s">
-        <v>85</v>
-      </c>
-      <c r="L43" t="s">
-        <v>91</v>
-      </c>
-      <c r="M43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>454</v>
-      </c>
-      <c r="F44">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G44">
-        <f>业务组织架构菜单!$E$25</f>
-      </c>
-      <c r="H44" t="s">
-        <v>421</v>
-      </c>
-      <c r="I44" t="s">
-        <v>422</v>
-      </c>
-      <c r="J44" t="s">
-        <v>423</v>
-      </c>
-      <c r="K44" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>455</v>
-      </c>
-      <c r="F45">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G45">
-        <f>业务组织架构菜单!$E$26</f>
-      </c>
-      <c r="H45" t="s">
-        <v>421</v>
-      </c>
-      <c r="I45" t="s">
-        <v>422</v>
-      </c>
-      <c r="J45" t="s">
-        <v>423</v>
-      </c>
-      <c r="K45" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>456</v>
-      </c>
-      <c r="F46">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G46">
-        <f>业务组织架构菜单!$E$26</f>
-      </c>
-      <c r="H46" t="s">
-        <v>421</v>
-      </c>
-      <c r="I46" t="s">
-        <v>422</v>
-      </c>
-      <c r="J46" t="s">
-        <v>423</v>
-      </c>
-      <c r="K46" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>457</v>
-      </c>
-      <c r="F47">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G47">
-        <f>业务组织架构菜单!$E$27</f>
-      </c>
-      <c r="H47" t="s">
-        <v>421</v>
-      </c>
-      <c r="I47" t="s">
-        <v>422</v>
-      </c>
-      <c r="J47" t="s">
-        <v>423</v>
-      </c>
-      <c r="K47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" t="s">
-        <v>91</v>
-      </c>
-      <c r="M47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>458</v>
-      </c>
-      <c r="F48">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G48">
-        <f>业务组织架构菜单!$E$27</f>
-      </c>
-      <c r="H48" t="s">
-        <v>421</v>
-      </c>
-      <c r="I48" t="s">
-        <v>422</v>
-      </c>
-      <c r="J48" t="s">
-        <v>423</v>
-      </c>
-      <c r="K48" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>459</v>
-      </c>
-      <c r="F49">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G49">
-        <f>业务组织架构菜单!$E$28</f>
-      </c>
-      <c r="H49" t="s">
-        <v>421</v>
-      </c>
-      <c r="I49" t="s">
-        <v>422</v>
-      </c>
-      <c r="J49" t="s">
-        <v>423</v>
-      </c>
-      <c r="K49" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" t="s">
-        <v>91</v>
-      </c>
-      <c r="M49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>460</v>
-      </c>
-      <c r="F50">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G50">
-        <f>业务组织架构菜单!$E$28</f>
-      </c>
-      <c r="H50" t="s">
-        <v>421</v>
-      </c>
-      <c r="I50" t="s">
-        <v>422</v>
-      </c>
-      <c r="J50" t="s">
-        <v>423</v>
-      </c>
-      <c r="K50" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>461</v>
-      </c>
-      <c r="F51">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G51">
-        <f>业务组织架构菜单!$E$29</f>
-      </c>
-      <c r="H51" t="s">
-        <v>421</v>
-      </c>
-      <c r="I51" t="s">
-        <v>422</v>
-      </c>
-      <c r="J51" t="s">
-        <v>423</v>
-      </c>
-      <c r="K51" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>462</v>
-      </c>
-      <c r="F52">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G52">
-        <f>业务组织架构菜单!$E$29</f>
-      </c>
-      <c r="H52" t="s">
-        <v>421</v>
-      </c>
-      <c r="I52" t="s">
-        <v>422</v>
-      </c>
-      <c r="J52" t="s">
-        <v>423</v>
-      </c>
-      <c r="K52" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>463</v>
-      </c>
-      <c r="F53">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G53">
-        <f>业务组织架构菜单!$E$30</f>
-      </c>
-      <c r="H53" t="s">
-        <v>421</v>
-      </c>
-      <c r="I53" t="s">
-        <v>422</v>
-      </c>
-      <c r="J53" t="s">
-        <v>423</v>
-      </c>
-      <c r="K53" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" t="s">
-        <v>91</v>
-      </c>
-      <c r="M53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>464</v>
-      </c>
-      <c r="F54">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G54">
-        <f>业务组织架构菜单!$E$30</f>
-      </c>
-      <c r="H54" t="s">
-        <v>421</v>
-      </c>
-      <c r="I54" t="s">
-        <v>422</v>
-      </c>
-      <c r="J54" t="s">
-        <v>423</v>
-      </c>
-      <c r="K54" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" t="s">
-        <v>91</v>
-      </c>
-      <c r="M54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>465</v>
-      </c>
-      <c r="F55">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G55">
-        <f>业务组织架构菜单!$E$31</f>
-      </c>
-      <c r="H55" t="s">
-        <v>421</v>
-      </c>
-      <c r="I55" t="s">
-        <v>422</v>
-      </c>
-      <c r="J55" t="s">
-        <v>423</v>
-      </c>
-      <c r="K55" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" t="s">
-        <v>91</v>
-      </c>
-      <c r="M55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>466</v>
-      </c>
-      <c r="F56">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G56">
-        <f>业务组织架构菜单!$E$31</f>
-      </c>
-      <c r="H56" t="s">
-        <v>421</v>
-      </c>
-      <c r="I56" t="s">
-        <v>422</v>
-      </c>
-      <c r="J56" t="s">
-        <v>423</v>
-      </c>
-      <c r="K56" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>467</v>
-      </c>
-      <c r="F57">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G57">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="H57" t="s">
-        <v>421</v>
-      </c>
-      <c r="I57" t="s">
-        <v>422</v>
-      </c>
-      <c r="J57" t="s">
-        <v>423</v>
-      </c>
-      <c r="K57" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" t="s">
-        <v>91</v>
-      </c>
-      <c r="M57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>468</v>
-      </c>
-      <c r="F58">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G58">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="H58" t="s">
-        <v>421</v>
-      </c>
-      <c r="I58" t="s">
-        <v>422</v>
-      </c>
-      <c r="J58" t="s">
-        <v>423</v>
-      </c>
-      <c r="K58" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" t="s">
-        <v>91</v>
-      </c>
-      <c r="M58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>469</v>
-      </c>
-      <c r="F59">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G59">
-        <f>业务组织架构菜单!$E$33</f>
-      </c>
-      <c r="H59" t="s">
-        <v>421</v>
-      </c>
-      <c r="I59" t="s">
-        <v>422</v>
-      </c>
-      <c r="J59" t="s">
-        <v>423</v>
-      </c>
-      <c r="K59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L59" t="s">
-        <v>91</v>
-      </c>
-      <c r="M59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>470</v>
-      </c>
-      <c r="F60">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G60">
-        <f>业务组织架构菜单!$E$33</f>
-      </c>
-      <c r="H60" t="s">
-        <v>421</v>
-      </c>
-      <c r="I60" t="s">
-        <v>422</v>
-      </c>
-      <c r="J60" t="s">
-        <v>423</v>
-      </c>
-      <c r="K60" t="s">
-        <v>85</v>
-      </c>
-      <c r="L60" t="s">
-        <v>91</v>
-      </c>
-      <c r="M60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>471</v>
-      </c>
-      <c r="F61">
-        <f>角色权限!$E$9</f>
-      </c>
-      <c r="G61">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="H61" t="s">
-        <v>421</v>
-      </c>
-      <c r="I61" t="s">
-        <v>422</v>
-      </c>
-      <c r="J61" t="s">
-        <v>423</v>
-      </c>
-      <c r="K61" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" t="s">
-        <v>91</v>
-      </c>
-      <c r="M61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>472</v>
-      </c>
-      <c r="F62">
-        <f>角色权限!$E$10</f>
-      </c>
-      <c r="G62">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="H62" t="s">
-        <v>421</v>
-      </c>
-      <c r="I62" t="s">
-        <v>422</v>
-      </c>
-      <c r="J62" t="s">
-        <v>423</v>
-      </c>
-      <c r="K62" t="s">
-        <v>85</v>
-      </c>
-      <c r="L62" t="s">
-        <v>91</v>
-      </c>
-      <c r="M62" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -9856,7 +8768,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9895,43 +8807,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s" s="86">
+        <v>382</v>
+      </c>
+      <c r="H7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M7" t="s">
         <v>419</v>
       </c>
-      <c r="H7" t="s">
-        <v>476</v>
-      </c>
-      <c r="I7" t="s">
-        <v>382</v>
-      </c>
-      <c r="J7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M7" t="s">
-        <v>480</v>
-      </c>
       <c r="N7" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="O7" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -9942,25 +8854,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
       <c r="F8" t="s">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="G8" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="J8" t="s">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="K8" t="s">
-        <v>488</v>
+        <v>427</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -9980,19 +8892,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="F9" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="G9" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -10010,125 +8922,154 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G10" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>425</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>432</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" t="s" s="87">
-        <v>492</v>
-      </c>
-      <c r="E11" t="s" s="88">
-        <v>493</v>
-      </c>
-      <c r="F11" t="s" s="89">
-        <v>494</v>
-      </c>
-      <c r="G11" t="s" s="90">
-        <v>495</v>
-      </c>
-      <c r="H11" t="s" s="91">
-        <v>496</v>
+      <c r="E11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>497</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
+        <v>425</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
-      </c>
-      <c r="G12">
-        <f>业务组织架构菜单!$E$8</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
+        <v>436</v>
+      </c>
+      <c r="G12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>499</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13" t="s">
-        <v>485</v>
-      </c>
-      <c r="G13">
-        <f>业务组织架构菜单!$E$9</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I13" t="s">
-        <v>499</v>
-      </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
+        <v>425</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="s">
-        <v>498</v>
-      </c>
-      <c r="F14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G14">
-        <f>业务组织架构菜单!$E$10</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" t="s" s="87">
+        <v>438</v>
+      </c>
+      <c r="E14" t="s" s="88">
+        <v>439</v>
+      </c>
+      <c r="F14" t="s" s="89">
+        <v>440</v>
+      </c>
+      <c r="G14" t="s" s="90">
+        <v>441</v>
+      </c>
+      <c r="H14" t="s" s="91">
+        <v>442</v>
       </c>
       <c r="I14" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
-        <v>485</v>
-      </c>
-      <c r="G15">
-        <f>业务组织架构菜单!$E$11</f>
-      </c>
-      <c r="H15">
+        <v>424</v>
+      </c>
+      <c r="G15" t="n">
+        <f>业务组织架构菜单!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
@@ -10139,19 +9080,21 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F16" t="s">
-        <v>485</v>
-      </c>
-      <c r="G16">
-        <f>业务组织架构菜单!$E$12</f>
-      </c>
-      <c r="H16">
+        <v>424</v>
+      </c>
+      <c r="G16" t="n">
+        <f>业务组织架构菜单!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J16" t="s">
         <v>91</v>
@@ -10162,19 +9105,21 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
-      </c>
-      <c r="G17">
-        <f>业务组织架构菜单!$E$13</f>
-      </c>
-      <c r="H17">
+        <v>424</v>
+      </c>
+      <c r="G17" t="n">
+        <f>业务组织架构菜单!$E$31</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J17" t="s">
         <v>91</v>
@@ -10185,19 +9130,21 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
-      </c>
-      <c r="G18">
-        <f>业务组织架构菜单!$E$14</f>
-      </c>
-      <c r="H18">
+        <v>424</v>
+      </c>
+      <c r="G18" t="n">
+        <f>业务组织架构菜单!$E$32</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
@@ -10208,19 +9155,21 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
-      </c>
-      <c r="G19">
-        <f>业务组织架构菜单!$E$15</f>
-      </c>
-      <c r="H19">
+        <v>424</v>
+      </c>
+      <c r="G19" t="n">
+        <f>业务组织架构菜单!$E$33</f>
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J19" t="s">
         <v>91</v>
@@ -10231,438 +9180,26 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
-      </c>
-      <c r="G20">
-        <f>业务组织架构菜单!$E$16</f>
-      </c>
-      <c r="H20">
+        <v>424</v>
+      </c>
+      <c r="G20" t="n">
+        <f>业务组织架构菜单!$E$34</f>
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>499</v>
+        <v>445</v>
       </c>
       <c r="J20" t="s">
         <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21" t="s">
-        <v>485</v>
-      </c>
-      <c r="G21">
-        <f>业务组织架构菜单!$E$17</f>
-      </c>
-      <c r="H21">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I21" t="s">
-        <v>499</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G22">
-        <f>业务组织架构菜单!$E$18</f>
-      </c>
-      <c r="H22">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I22" t="s">
-        <v>499</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>498</v>
-      </c>
-      <c r="F23" t="s">
-        <v>485</v>
-      </c>
-      <c r="G23">
-        <f>业务组织架构菜单!$E$19</f>
-      </c>
-      <c r="H23">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I23" t="s">
-        <v>499</v>
-      </c>
-      <c r="J23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>498</v>
-      </c>
-      <c r="F24" t="s">
-        <v>485</v>
-      </c>
-      <c r="G24">
-        <f>业务组织架构菜单!$E$20</f>
-      </c>
-      <c r="H24">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I24" t="s">
-        <v>499</v>
-      </c>
-      <c r="J24" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>498</v>
-      </c>
-      <c r="F25" t="s">
-        <v>485</v>
-      </c>
-      <c r="G25">
-        <f>业务组织架构菜单!$E$21</f>
-      </c>
-      <c r="H25">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I25" t="s">
-        <v>499</v>
-      </c>
-      <c r="J25" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="F26" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26">
-        <f>业务组织架构菜单!$E$22</f>
-      </c>
-      <c r="H26">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I26" t="s">
-        <v>499</v>
-      </c>
-      <c r="J26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>498</v>
-      </c>
-      <c r="F27" t="s">
-        <v>485</v>
-      </c>
-      <c r="G27">
-        <f>业务组织架构菜单!$E$23</f>
-      </c>
-      <c r="H27">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I27" t="s">
-        <v>499</v>
-      </c>
-      <c r="J27" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>498</v>
-      </c>
-      <c r="F28" t="s">
-        <v>485</v>
-      </c>
-      <c r="G28">
-        <f>业务组织架构菜单!$E$24</f>
-      </c>
-      <c r="H28">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I28" t="s">
-        <v>499</v>
-      </c>
-      <c r="J28" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>498</v>
-      </c>
-      <c r="F29" t="s">
-        <v>485</v>
-      </c>
-      <c r="G29">
-        <f>业务组织架构菜单!$E$25</f>
-      </c>
-      <c r="H29">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I29" t="s">
-        <v>499</v>
-      </c>
-      <c r="J29" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>498</v>
-      </c>
-      <c r="F30" t="s">
-        <v>485</v>
-      </c>
-      <c r="G30">
-        <f>业务组织架构菜单!$E$26</f>
-      </c>
-      <c r="H30">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I30" t="s">
-        <v>499</v>
-      </c>
-      <c r="J30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F31" t="s">
-        <v>485</v>
-      </c>
-      <c r="G31">
-        <f>业务组织架构菜单!$E$27</f>
-      </c>
-      <c r="H31">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I31" t="s">
-        <v>499</v>
-      </c>
-      <c r="J31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>498</v>
-      </c>
-      <c r="F32" t="s">
-        <v>485</v>
-      </c>
-      <c r="G32">
-        <f>业务组织架构菜单!$E$28</f>
-      </c>
-      <c r="H32">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I32" t="s">
-        <v>499</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>498</v>
-      </c>
-      <c r="F33" t="s">
-        <v>485</v>
-      </c>
-      <c r="G33">
-        <f>业务组织架构菜单!$E$29</f>
-      </c>
-      <c r="H33">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I33" t="s">
-        <v>499</v>
-      </c>
-      <c r="J33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>498</v>
-      </c>
-      <c r="F34" t="s">
-        <v>485</v>
-      </c>
-      <c r="G34">
-        <f>业务组织架构菜单!$E$30</f>
-      </c>
-      <c r="H34">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I34" t="s">
-        <v>499</v>
-      </c>
-      <c r="J34" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>498</v>
-      </c>
-      <c r="F35" t="s">
-        <v>485</v>
-      </c>
-      <c r="G35">
-        <f>业务组织架构菜单!$E$31</f>
-      </c>
-      <c r="H35">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I35" t="s">
-        <v>499</v>
-      </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>498</v>
-      </c>
-      <c r="F36" t="s">
-        <v>485</v>
-      </c>
-      <c r="G36">
-        <f>业务组织架构菜单!$E$32</f>
-      </c>
-      <c r="H36">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I36" t="s">
-        <v>499</v>
-      </c>
-      <c r="J36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>498</v>
-      </c>
-      <c r="F37" t="s">
-        <v>485</v>
-      </c>
-      <c r="G37">
-        <f>业务组织架构菜单!$E$33</f>
-      </c>
-      <c r="H37">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I37" t="s">
-        <v>499</v>
-      </c>
-      <c r="J37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>498</v>
-      </c>
-      <c r="F38" t="s">
-        <v>485</v>
-      </c>
-      <c r="G38">
-        <f>业务组织架构菜单!$E$34</f>
-      </c>
-      <c r="H38">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I38" t="s">
-        <v>499</v>
-      </c>
-      <c r="J38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" t="s">
         <v>92</v>
       </c>
     </row>
